--- a/LIBA14/files/Q07.xlsx
+++ b/LIBA14/files/Q07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941C487-54E5-4FCE-8A5B-1EC353AC546C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C6CAC-BD2A-45AE-B72A-A83FF44770CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{71E531FF-C711-4B9C-BDCC-F50E60E37555}"/>
   </bookViews>
@@ -324,8 +324,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -353,9 +361,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,7 +686,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +954,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1216,7 +1225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
